--- a/data-raw/Kuviot_muut_2023.xlsx
+++ b/data-raw/Kuviot_muut_2023.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14976" windowHeight="10572" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14976" windowHeight="10572" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Kuvio_4_2" sheetId="1" r:id="rId1"/>
@@ -17,30 +17,22 @@
     <sheet name="Kuvio_7" sheetId="3" r:id="rId3"/>
     <sheet name="Kuvio_8" sheetId="4" r:id="rId4"/>
     <sheet name="Kuvio_20" sheetId="5" r:id="rId5"/>
-    <sheet name="Kuvio_1_5" sheetId="6" r:id="rId6"/>
+    <sheet name="Kuvio_15" sheetId="7" r:id="rId6"/>
+    <sheet name="Kuvio_14" sheetId="8" r:id="rId7"/>
+    <sheet name="Kuvio_16" sheetId="9" r:id="rId8"/>
+    <sheet name="Kuvio_1_5" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>time</t>
   </si>
@@ -152,15 +144,55 @@
   <si>
     <t>periodi</t>
   </si>
+  <si>
+    <t>Jäännöstermi, jos mallissa vain kiinteä pääoma</t>
+  </si>
+  <si>
+    <t>Jäännöstermi, jos mallissa sekä kiinteä että inhimillinen pääoma</t>
+  </si>
+  <si>
+    <t>AMK, alempi kk-aste</t>
+  </si>
+  <si>
+    <t>Ylempi kk-aste</t>
+  </si>
+  <si>
+    <t>Tutkija-koulutus</t>
+  </si>
+  <si>
+    <t>Lukio</t>
+  </si>
+  <si>
+    <t>Amm. Koulutus</t>
+  </si>
+  <si>
+    <t>Perusskenaario</t>
+  </si>
+  <si>
+    <t>Optimistinen politiikka</t>
+  </si>
+  <si>
+    <t>Muuttumattoman politiikan skenaario</t>
+  </si>
+  <si>
+    <t>Muuttumaton</t>
+  </si>
+  <si>
+    <t>Perus</t>
+  </si>
+  <si>
+    <t>Optimistinen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +220,55 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,12 +287,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="4"/>
@@ -1518,7 +1604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -1848,6 +1934,4107 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1934</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.68888519712648066</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.3909949516925695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1935</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.68557017004779996</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.4045698551653554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1936</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.68744032850491843</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.4365840099507354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1937</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.68387946229419183</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.4441139184329992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1938</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.68029179013909546</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.4692459726347593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>1939</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.62266659536905367</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.4193850060500586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1940</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.56471511636224614</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.2752859677518729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1941</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.57388368378543109</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.3175721988366382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1942</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.56406669694888434</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1.3346552849760098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1943</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.61671007628079311</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1.4700527250445781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>1944</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.61033064909377122</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1.4325857576166734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>1945</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.56423360477018591</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1.3931651322493703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>1946</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.59923082053109167</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.448079028536841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>1947</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.60059008966891159</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.463544307518938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>1948</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.63236495310106</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1.5037197739983486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>1949</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.6558895901093833</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.5816181392328139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>1950</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.66871585116143084</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.6090167763691376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>1951</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.70949504335594282</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.6674725778258379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>1952</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.70811881670760513</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1.6885118760890516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>1953</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.69106401790604877</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1.6940232650258498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>1954</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.72180851041826388</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1.7773409202306998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>1955</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.72838243020205062</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1.8035664440635515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>1956</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.72254683779176554</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1.8152077035275636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>1957</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.72502088154972688</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1.8825724634888457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>1958</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.70238845085201651</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1.8747789046415728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>1959</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.71263921300689737</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1.9376036616263164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>1960</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.73503677370862597</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2.0336189134932829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>1961</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.74647961131286167</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2.1139544796553897</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>1962</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.7295530622316746</v>
+      </c>
+      <c r="C30" s="9">
+        <v>2.1459220607094243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>1963</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.71569195821133114</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2.1843792607434604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>1964</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.72231838965733908</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2.2467834229309744</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>1965</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.72753503300635058</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2.3086741137257718</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>1966</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.70969908761404921</v>
+      </c>
+      <c r="C34" s="9">
+        <v>2.3376599633868698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>1967</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.69493653148925127</v>
+      </c>
+      <c r="C35" s="9">
+        <v>2.3960363100050621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>1968</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.68273409347945235</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2.4559616290430251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>1969</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.71949353325756971</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2.6396526634202058</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>1970</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.73463876972215958</v>
+      </c>
+      <c r="C38" s="9">
+        <v>2.7605604004249558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>1971</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.70667525107123363</v>
+      </c>
+      <c r="C39" s="9">
+        <v>2.8052542162658205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>1972</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.73040500975697942</v>
+      </c>
+      <c r="C40" s="9">
+        <v>2.963511393761634</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>1973</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.748527170573133</v>
+      </c>
+      <c r="C41" s="9">
+        <v>3.0814839578682305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>1974</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.73589686076626937</v>
+      </c>
+      <c r="C42" s="9">
+        <v>3.1125251505721292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>1975</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.7133879649843009</v>
+      </c>
+      <c r="C43" s="9">
+        <v>3.1117815684971442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>1976</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.68792767447634651</v>
+      </c>
+      <c r="C44" s="10">
+        <v>3.0836410947611284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>1977</v>
+      </c>
+      <c r="B45" s="8">
+        <v>0.666504997203338</v>
+      </c>
+      <c r="C45" s="10">
+        <v>3.0786750017680129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>1978</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0.66831641964411015</v>
+      </c>
+      <c r="C46" s="10">
+        <v>3.1524448902482267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>1979</v>
+      </c>
+      <c r="B47" s="8">
+        <v>0.69452121521636456</v>
+      </c>
+      <c r="C47" s="10">
+        <v>3.3005501655245331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>1980</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.70711041069817981</v>
+      </c>
+      <c r="C48" s="10">
+        <v>3.3881273411674293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>1981</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0.69006318917114817</v>
+      </c>
+      <c r="C49" s="10">
+        <v>3.3627037325810507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>1982</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.68005900909661332</v>
+      </c>
+      <c r="C50" s="10">
+        <v>3.3994429197475147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>1983</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.67946380317940491</v>
+      </c>
+      <c r="C51" s="10">
+        <v>3.4899154517658943</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>1984</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0.67802693692520788</v>
+      </c>
+      <c r="C52" s="10">
+        <v>3.5581193723631332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>1985</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0.67926510359081826</v>
+      </c>
+      <c r="C53" s="10">
+        <v>3.6329103206569817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>1986</v>
+      </c>
+      <c r="B54" s="8">
+        <v>0.67486457037981418</v>
+      </c>
+      <c r="C54" s="10">
+        <v>3.7065036274156622</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>1987</v>
+      </c>
+      <c r="B55" s="8">
+        <v>0.67521149770688182</v>
+      </c>
+      <c r="C55" s="10">
+        <v>3.7439651846567639</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>1988</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0.68250565879964098</v>
+      </c>
+      <c r="C56" s="10">
+        <v>3.8536308395392482</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>1989</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0.68979090537045118</v>
+      </c>
+      <c r="C57" s="10">
+        <v>3.9519360668289822</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>1990</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0.6766353238885271</v>
+      </c>
+      <c r="C58" s="10">
+        <v>3.9979651336972166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>1991</v>
+      </c>
+      <c r="B59" s="8">
+        <v>0.62119040054079533</v>
+      </c>
+      <c r="C59" s="10">
+        <v>3.8876746531407833</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>1992</v>
+      </c>
+      <c r="B60" s="8">
+        <v>0.59452937739647682</v>
+      </c>
+      <c r="C60" s="10">
+        <v>3.9215384614740154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>1993</v>
+      </c>
+      <c r="B61" s="8">
+        <v>0.58793659958469313</v>
+      </c>
+      <c r="C61" s="10">
+        <v>4.0650139141060304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>1994</v>
+      </c>
+      <c r="B62" s="8">
+        <v>0.60724295038652554</v>
+      </c>
+      <c r="C62" s="10">
+        <v>4.2673498009973487</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>1995</v>
+      </c>
+      <c r="B63" s="8">
+        <v>0.62155532600618202</v>
+      </c>
+      <c r="C63" s="10">
+        <v>4.3784796204092613</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>1996</v>
+      </c>
+      <c r="B64" s="8">
+        <v>0.63361213396242977</v>
+      </c>
+      <c r="C64" s="10">
+        <v>4.484158429145805</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>1997</v>
+      </c>
+      <c r="B65" s="8">
+        <v>0.65606479444733989</v>
+      </c>
+      <c r="C65" s="10">
+        <v>4.6478373689304364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>1998</v>
+      </c>
+      <c r="B66" s="8">
+        <v>0.67321888376678662</v>
+      </c>
+      <c r="C66" s="10">
+        <v>4.8176890753173911</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>1999</v>
+      </c>
+      <c r="B67" s="8">
+        <v>0.68624588128421338</v>
+      </c>
+      <c r="C67" s="10">
+        <v>4.9425757671488979</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B68" s="8">
+        <v>0.71296561307544504</v>
+      </c>
+      <c r="C68" s="10">
+        <v>5.1749068903251789</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B69" s="8">
+        <v>0.71055994074986439</v>
+      </c>
+      <c r="C69" s="10">
+        <v>5.253940189252253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B70" s="8">
+        <v>0.70013906206734944</v>
+      </c>
+      <c r="C70" s="10">
+        <v>5.2659394964959114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B71" s="8">
+        <v>0.69091651197650239</v>
+      </c>
+      <c r="C71" s="10">
+        <v>5.2977638701583718</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B72" s="8">
+        <v>0.69993352176558921</v>
+      </c>
+      <c r="C72" s="10">
+        <v>5.4442291076349258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B73" s="8">
+        <v>0.70078441415761927</v>
+      </c>
+      <c r="C73" s="10">
+        <v>5.5156583778783368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B74" s="8">
+        <v>0.71110327296264897</v>
+      </c>
+      <c r="C74" s="10">
+        <v>5.6324363495224619</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B75" s="8">
+        <v>0.73466414967829208</v>
+      </c>
+      <c r="C75" s="10">
+        <v>5.8451514625692438</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B76" s="8">
+        <v>0.71862646479715298</v>
+      </c>
+      <c r="C76" s="10">
+        <v>5.7794384752341159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B77" s="8">
+        <v>0.64437845007812111</v>
+      </c>
+      <c r="C77" s="10">
+        <v>5.3819410259639593</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B78" s="8">
+        <v>0.65153924094675386</v>
+      </c>
+      <c r="C78" s="10">
+        <v>5.5396019456065133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B79" s="8">
+        <v>0.64993382060613647</v>
+      </c>
+      <c r="C79" s="10">
+        <v>5.5784134510023033</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B80" s="8">
+        <v>0.62460224046736068</v>
+      </c>
+      <c r="C80" s="10">
+        <v>5.4390286003814463</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B81" s="8">
+        <v>0.60694559431075479</v>
+      </c>
+      <c r="C81" s="10">
+        <v>5.4031025481897386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B82" s="8">
+        <v>0.59459962033699587</v>
+      </c>
+      <c r="C82" s="10">
+        <v>5.3902414798496476</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B83" s="8">
+        <v>0.58646553379706756</v>
+      </c>
+      <c r="C83" s="10">
+        <v>5.403365139300659</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B84" s="8">
+        <v>0.59121396982996621</v>
+      </c>
+      <c r="C84" s="10">
+        <v>5.5033949596837495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B85" s="8">
+        <v>0.60265300201723848</v>
+      </c>
+      <c r="C85" s="10">
+        <v>5.6538026631490368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B86" s="8">
+        <v>0.59953195276789684</v>
+      </c>
+      <c r="C86" s="10">
+        <v>5.6141694861069507</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B87" s="8">
+        <v>0.59778760997171398</v>
+      </c>
+      <c r="C87" s="10">
+        <v>5.616106563662945</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="14">
+        <v>39073.997250471664</v>
+      </c>
+      <c r="C2" s="14">
+        <v>43183.650612292404</v>
+      </c>
+      <c r="D2" s="14">
+        <v>6428.2306492809112</v>
+      </c>
+      <c r="E2" s="14">
+        <v>15202.830665898406</v>
+      </c>
+      <c r="F2" s="14">
+        <v>4132.7900766555422</v>
+      </c>
+      <c r="G2" s="11">
+        <v>108021.49925459894</v>
+      </c>
+      <c r="H2" s="12">
+        <v>108021.49925459894</v>
+      </c>
+      <c r="I2" s="13">
+        <v>108021.49925459894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="14">
+        <v>39860.004107145221</v>
+      </c>
+      <c r="C3" s="14">
+        <v>44924.541513722157</v>
+      </c>
+      <c r="D3" s="14">
+        <v>7564.7876505732129</v>
+      </c>
+      <c r="E3" s="14">
+        <v>15661.162076819546</v>
+      </c>
+      <c r="F3" s="14">
+        <v>4227.9992380437907</v>
+      </c>
+      <c r="G3" s="11">
+        <v>112238.49458630393</v>
+      </c>
+      <c r="H3" s="12">
+        <v>112238.49458630393</v>
+      </c>
+      <c r="I3" s="13">
+        <v>112238.49458630393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="14">
+        <v>40602.351115306585</v>
+      </c>
+      <c r="C4" s="14">
+        <v>46633.423014049193</v>
+      </c>
+      <c r="D4" s="14">
+        <v>8659.1005301839432</v>
+      </c>
+      <c r="E4" s="14">
+        <v>16228.840219629814</v>
+      </c>
+      <c r="F4" s="14">
+        <v>4344.5735860641844</v>
+      </c>
+      <c r="G4" s="11">
+        <v>116468.28846523372</v>
+      </c>
+      <c r="H4" s="12">
+        <v>116468.28846523372</v>
+      </c>
+      <c r="I4" s="13">
+        <v>116468.28846523372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="14">
+        <v>41148.740907831634</v>
+      </c>
+      <c r="C5" s="14">
+        <v>48024.13334599488</v>
+      </c>
+      <c r="D5" s="14">
+        <v>9594.6719345333186</v>
+      </c>
+      <c r="E5" s="14">
+        <v>16949.769887501174</v>
+      </c>
+      <c r="F5" s="14">
+        <v>4462.0425076084193</v>
+      </c>
+      <c r="G5" s="11">
+        <v>120179.35858346941</v>
+      </c>
+      <c r="H5" s="12">
+        <v>120179.35858346941</v>
+      </c>
+      <c r="I5" s="13">
+        <v>120179.35858346941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="14">
+        <v>41344.500412478286</v>
+      </c>
+      <c r="C6" s="14">
+        <v>49781.931086419791</v>
+      </c>
+      <c r="D6" s="14">
+        <v>10629.547847524886</v>
+      </c>
+      <c r="E6" s="14">
+        <v>17536.862709956895</v>
+      </c>
+      <c r="F6" s="14">
+        <v>4585.4753619268995</v>
+      </c>
+      <c r="G6" s="11">
+        <v>123878.31741830676</v>
+      </c>
+      <c r="H6" s="12">
+        <v>123878.31741830676</v>
+      </c>
+      <c r="I6" s="13">
+        <v>123878.31741830676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="14">
+        <v>41485.629591379482</v>
+      </c>
+      <c r="C7" s="14">
+        <v>51532.275159594741</v>
+      </c>
+      <c r="D7" s="14">
+        <v>11617.420650594169</v>
+      </c>
+      <c r="E7" s="14">
+        <v>18132.924322063551</v>
+      </c>
+      <c r="F7" s="14">
+        <v>4742.6776466444189</v>
+      </c>
+      <c r="G7" s="11">
+        <v>127510.92737027635</v>
+      </c>
+      <c r="H7" s="12">
+        <v>127510.92737027635</v>
+      </c>
+      <c r="I7" s="13">
+        <v>127510.92737027635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="14">
+        <v>41531.126550704896</v>
+      </c>
+      <c r="C8" s="14">
+        <v>53323.616812940716</v>
+      </c>
+      <c r="D8" s="14">
+        <v>12501.13064371335</v>
+      </c>
+      <c r="E8" s="14">
+        <v>18747.89415817289</v>
+      </c>
+      <c r="F8" s="14">
+        <v>4811.8871917589222</v>
+      </c>
+      <c r="G8" s="11">
+        <v>130915.65535729077</v>
+      </c>
+      <c r="H8" s="12">
+        <v>130915.65535729077</v>
+      </c>
+      <c r="I8" s="13">
+        <v>130915.65535729077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="14">
+        <v>41602.905628617278</v>
+      </c>
+      <c r="C9" s="14">
+        <v>55148.67824854725</v>
+      </c>
+      <c r="D9" s="14">
+        <v>13287.38002792609</v>
+      </c>
+      <c r="E9" s="14">
+        <v>19634.171833267286</v>
+      </c>
+      <c r="F9" s="14">
+        <v>4887.560875466289</v>
+      </c>
+      <c r="G9" s="11">
+        <v>134560.6966138242</v>
+      </c>
+      <c r="H9" s="12">
+        <v>134560.6966138242</v>
+      </c>
+      <c r="I9" s="13">
+        <v>134560.6966138242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="14">
+        <v>41643.188024261515</v>
+      </c>
+      <c r="C10" s="14">
+        <v>56895.617681762727</v>
+      </c>
+      <c r="D10" s="14">
+        <v>14045.464920996255</v>
+      </c>
+      <c r="E10" s="14">
+        <v>22263.583363918595</v>
+      </c>
+      <c r="F10" s="14">
+        <v>4947.9776825199242</v>
+      </c>
+      <c r="G10" s="11">
+        <v>139795.83167345903</v>
+      </c>
+      <c r="H10" s="12">
+        <v>139795.83167345903</v>
+      </c>
+      <c r="I10" s="13">
+        <v>139795.83167345903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="14">
+        <v>41706.605549244385</v>
+      </c>
+      <c r="C11" s="14">
+        <v>58850.813429558875</v>
+      </c>
+      <c r="D11" s="14">
+        <v>14653.629316655744</v>
+      </c>
+      <c r="E11" s="14">
+        <v>23069.143435459253</v>
+      </c>
+      <c r="F11" s="14">
+        <v>5005.890124335735</v>
+      </c>
+      <c r="G11" s="11">
+        <v>143286.08185525399</v>
+      </c>
+      <c r="H11" s="12">
+        <v>143286.08185525399</v>
+      </c>
+      <c r="I11" s="13">
+        <v>143286.08185525399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="14">
+        <v>41765.532418999348</v>
+      </c>
+      <c r="C12" s="14">
+        <v>60763.241377932798</v>
+      </c>
+      <c r="D12" s="14">
+        <v>15246.518253335924</v>
+      </c>
+      <c r="E12" s="14">
+        <v>24461.531324130483</v>
+      </c>
+      <c r="F12" s="14">
+        <v>5019.7398651491458</v>
+      </c>
+      <c r="G12" s="11">
+        <v>147256.56323954766</v>
+      </c>
+      <c r="H12" s="12">
+        <v>147256.56323954766</v>
+      </c>
+      <c r="I12" s="13">
+        <v>147256.56323954766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="14">
+        <v>41862.15979738941</v>
+      </c>
+      <c r="C13" s="14">
+        <v>62874.898078688115</v>
+      </c>
+      <c r="D13" s="14">
+        <v>15841.727320915536</v>
+      </c>
+      <c r="E13" s="14">
+        <v>25696.236436140149</v>
+      </c>
+      <c r="F13" s="14">
+        <v>5054.6372420012294</v>
+      </c>
+      <c r="G13" s="11">
+        <v>151329.65887513445</v>
+      </c>
+      <c r="H13" s="12">
+        <v>151329.65887513445</v>
+      </c>
+      <c r="I13" s="13">
+        <v>151329.65887513445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="14">
+        <v>41922.481740623269</v>
+      </c>
+      <c r="C14" s="14">
+        <v>64946.932216668341</v>
+      </c>
+      <c r="D14" s="14">
+        <v>16452.150306201213</v>
+      </c>
+      <c r="E14" s="14">
+        <v>26977.334498812979</v>
+      </c>
+      <c r="F14" s="14">
+        <v>5080.8167690325108</v>
+      </c>
+      <c r="G14" s="11">
+        <v>155379.7155313383</v>
+      </c>
+      <c r="H14" s="12">
+        <v>155379.7155313383</v>
+      </c>
+      <c r="I14" s="13">
+        <v>155379.7155313383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="14">
+        <v>41998.177495128439</v>
+      </c>
+      <c r="C15" s="14">
+        <v>66800.649336538831</v>
+      </c>
+      <c r="D15" s="14">
+        <v>17063.551128198695</v>
+      </c>
+      <c r="E15" s="14">
+        <v>28274.592714871877</v>
+      </c>
+      <c r="F15" s="14">
+        <v>5136.7490114107604</v>
+      </c>
+      <c r="G15" s="11">
+        <v>159273.71968614857</v>
+      </c>
+      <c r="H15" s="12">
+        <v>159273.71968614857</v>
+      </c>
+      <c r="I15" s="13">
+        <v>159273.71968614857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="14">
+        <v>42073.474328469783</v>
+      </c>
+      <c r="C16" s="14">
+        <v>68764.646117054726</v>
+      </c>
+      <c r="D16" s="14">
+        <v>17628.637632637336</v>
+      </c>
+      <c r="E16" s="14">
+        <v>29576.089592729466</v>
+      </c>
+      <c r="F16" s="14">
+        <v>5196.4325846355914</v>
+      </c>
+      <c r="G16" s="11">
+        <v>163239.28025552692</v>
+      </c>
+      <c r="H16" s="12">
+        <v>163239.28025552692</v>
+      </c>
+      <c r="I16" s="13">
+        <v>163239.28025552692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="14">
+        <v>42073.379194900612</v>
+      </c>
+      <c r="C17" s="14">
+        <v>70768.814610472517</v>
+      </c>
+      <c r="D17" s="14">
+        <v>18212.284464856311</v>
+      </c>
+      <c r="E17" s="14">
+        <v>31031.124270867931</v>
+      </c>
+      <c r="F17" s="14">
+        <v>5251.1527293271047</v>
+      </c>
+      <c r="G17" s="11">
+        <v>167336.75527042447</v>
+      </c>
+      <c r="H17" s="12">
+        <v>167336.75527042447</v>
+      </c>
+      <c r="I17" s="13">
+        <v>167336.75527042447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="14">
+        <v>42066.397230157381</v>
+      </c>
+      <c r="C18" s="14">
+        <v>72595.080654630961</v>
+      </c>
+      <c r="D18" s="14">
+        <v>18717.669261435873</v>
+      </c>
+      <c r="E18" s="14">
+        <v>32282.956868900328</v>
+      </c>
+      <c r="F18" s="14">
+        <v>5194.8955932828349</v>
+      </c>
+      <c r="G18" s="11">
+        <v>170856.99960840735</v>
+      </c>
+      <c r="H18" s="12">
+        <v>170856.99960840735</v>
+      </c>
+      <c r="I18" s="13">
+        <v>170856.99960840735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="14">
+        <v>42029.979227498348</v>
+      </c>
+      <c r="C19" s="14">
+        <v>74413.383314546765</v>
+      </c>
+      <c r="D19" s="14">
+        <v>19224.287106907956</v>
+      </c>
+      <c r="E19" s="14">
+        <v>33379.19798062247</v>
+      </c>
+      <c r="F19" s="14">
+        <v>5117.6936871678527</v>
+      </c>
+      <c r="G19" s="11">
+        <v>174164.54131674339</v>
+      </c>
+      <c r="H19" s="12">
+        <v>174164.54131674339</v>
+      </c>
+      <c r="I19" s="13">
+        <v>174164.54131674339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="14">
+        <v>42010.152711365154</v>
+      </c>
+      <c r="C20" s="14">
+        <v>76308.111189183022</v>
+      </c>
+      <c r="D20" s="14">
+        <v>19806.861011611982</v>
+      </c>
+      <c r="E20" s="14">
+        <v>34413.697022081833</v>
+      </c>
+      <c r="F20" s="14">
+        <v>5047.5443732375261</v>
+      </c>
+      <c r="G20" s="11">
+        <v>177586.36630747953</v>
+      </c>
+      <c r="H20" s="12">
+        <v>177586.36630747953</v>
+      </c>
+      <c r="I20" s="13">
+        <v>177586.36630747953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="14">
+        <v>41894.555548370132</v>
+      </c>
+      <c r="C21" s="14">
+        <v>77485.714425839658</v>
+      </c>
+      <c r="D21" s="14">
+        <v>20355.632509729108</v>
+      </c>
+      <c r="E21" s="14">
+        <v>35527.108868330404</v>
+      </c>
+      <c r="F21" s="14">
+        <v>4971.9904916120668</v>
+      </c>
+      <c r="G21" s="11">
+        <v>180235.00184388133</v>
+      </c>
+      <c r="H21" s="12">
+        <v>180235.00184388133</v>
+      </c>
+      <c r="I21" s="13">
+        <v>180235.00184388133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="14">
+        <v>41803.367619267767</v>
+      </c>
+      <c r="C22" s="14">
+        <v>78112.39708658203</v>
+      </c>
+      <c r="D22" s="14">
+        <v>20885.802870565898</v>
+      </c>
+      <c r="E22" s="14">
+        <v>37088.761605334286</v>
+      </c>
+      <c r="F22" s="14">
+        <v>4921.2518686850926</v>
+      </c>
+      <c r="G22" s="11">
+        <v>182811.58105043511</v>
+      </c>
+      <c r="H22" s="12">
+        <v>182811.58105043511</v>
+      </c>
+      <c r="I22" s="13">
+        <v>182811.58105043511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="14">
+        <v>41751.357972406455</v>
+      </c>
+      <c r="C23" s="14">
+        <v>78984.363807895861</v>
+      </c>
+      <c r="D23" s="14">
+        <v>21375.7298906699</v>
+      </c>
+      <c r="E23" s="14">
+        <v>38099.115112284555</v>
+      </c>
+      <c r="F23" s="14">
+        <v>4826.8781560836214</v>
+      </c>
+      <c r="G23" s="11">
+        <v>185037.44493934041</v>
+      </c>
+      <c r="H23" s="12">
+        <v>185037.44493934041</v>
+      </c>
+      <c r="I23" s="13">
+        <v>185037.44493934041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="14">
+        <v>41770.936038748652</v>
+      </c>
+      <c r="C24" s="14">
+        <v>80224.515838678024</v>
+      </c>
+      <c r="D24" s="14">
+        <v>21921.142152366705</v>
+      </c>
+      <c r="E24" s="14">
+        <v>39200.983594588004</v>
+      </c>
+      <c r="F24" s="14">
+        <v>4780.862174084451</v>
+      </c>
+      <c r="G24" s="11">
+        <v>187898.43979846581</v>
+      </c>
+      <c r="H24" s="12">
+        <v>187904.1978962367</v>
+      </c>
+      <c r="I24" s="13">
+        <v>187911.92615781727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="14">
+        <v>41783.705086337577</v>
+      </c>
+      <c r="C25" s="14">
+        <v>81336.921527047438</v>
+      </c>
+      <c r="D25" s="14">
+        <v>22300.394644578755</v>
+      </c>
+      <c r="E25" s="14">
+        <v>40157.604432964916</v>
+      </c>
+      <c r="F25" s="14">
+        <v>4734.884529912717</v>
+      </c>
+      <c r="G25" s="11">
+        <v>190313.51022084145</v>
+      </c>
+      <c r="H25" s="12">
+        <v>190217.40034304876</v>
+      </c>
+      <c r="I25" s="13">
+        <v>190089.98782201664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="14">
+        <v>41806.149855861564</v>
+      </c>
+      <c r="C26" s="14">
+        <v>82464.940342366899</v>
+      </c>
+      <c r="D26" s="14">
+        <v>22658.414757255949</v>
+      </c>
+      <c r="E26" s="14">
+        <v>41036.12370669614</v>
+      </c>
+      <c r="F26" s="14">
+        <v>4695.1127087733394</v>
+      </c>
+      <c r="G26" s="11">
+        <v>192660.74137095391</v>
+      </c>
+      <c r="H26" s="12">
+        <v>192478.91400968123</v>
+      </c>
+      <c r="I26" s="13">
+        <v>192238.18425336663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B27" s="14">
+        <v>41871.5187613175</v>
+      </c>
+      <c r="C27" s="14">
+        <v>83614.906765514694</v>
+      </c>
+      <c r="D27" s="14">
+        <v>23000.217941225095</v>
+      </c>
+      <c r="E27" s="14">
+        <v>41860.56181536724</v>
+      </c>
+      <c r="F27" s="14">
+        <v>4661.293604873561</v>
+      </c>
+      <c r="G27" s="11">
+        <v>195008.49888829808</v>
+      </c>
+      <c r="H27" s="12">
+        <v>194903.2931161673</v>
+      </c>
+      <c r="I27" s="13">
+        <v>194629.72631043958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B28" s="14">
+        <v>41944.368518492221</v>
+      </c>
+      <c r="C28" s="14">
+        <v>84746.710322377869</v>
+      </c>
+      <c r="D28" s="14">
+        <v>23326.498391336703</v>
+      </c>
+      <c r="E28" s="14">
+        <v>42639.376701327834</v>
+      </c>
+      <c r="F28" s="14">
+        <v>4631.9014094147497</v>
+      </c>
+      <c r="G28" s="11">
+        <v>197288.85534294936</v>
+      </c>
+      <c r="H28" s="12">
+        <v>197412.97217677406</v>
+      </c>
+      <c r="I28" s="13">
+        <v>197180.18139612547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>2027</v>
+      </c>
+      <c r="B29" s="14">
+        <v>42042.756365474692</v>
+      </c>
+      <c r="C29" s="14">
+        <v>85849.80944246237</v>
+      </c>
+      <c r="D29" s="14">
+        <v>23636.109712693822</v>
+      </c>
+      <c r="E29" s="14">
+        <v>43368.583631620961</v>
+      </c>
+      <c r="F29" s="14">
+        <v>4604.8113969099868</v>
+      </c>
+      <c r="G29" s="11">
+        <v>199502.07054916184</v>
+      </c>
+      <c r="H29" s="12">
+        <v>199979.52388398637</v>
+      </c>
+      <c r="I29" s="13">
+        <v>199848.67020374176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>2028</v>
+      </c>
+      <c r="B30" s="14">
+        <v>42159.351294042288</v>
+      </c>
+      <c r="C30" s="14">
+        <v>86904.883114346754</v>
+      </c>
+      <c r="D30" s="14">
+        <v>23925.218698430373</v>
+      </c>
+      <c r="E30" s="14">
+        <v>44043.134145221033</v>
+      </c>
+      <c r="F30" s="14">
+        <v>4579.0703236327645</v>
+      </c>
+      <c r="G30" s="11">
+        <v>201611.65757567322</v>
+      </c>
+      <c r="H30" s="12">
+        <v>202532.09402158452</v>
+      </c>
+      <c r="I30" s="13">
+        <v>202550.60761900491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>2029</v>
+      </c>
+      <c r="B31" s="14">
+        <v>42289.457612036924</v>
+      </c>
+      <c r="C31" s="14">
+        <v>87909.061648186762</v>
+      </c>
+      <c r="D31" s="14">
+        <v>24195.396027935516</v>
+      </c>
+      <c r="E31" s="14">
+        <v>44670.951989257752</v>
+      </c>
+      <c r="F31" s="14">
+        <v>4552.5428562104034</v>
+      </c>
+      <c r="G31" s="11">
+        <v>203617.41013362736</v>
+      </c>
+      <c r="H31" s="12">
+        <v>205041.64550119347</v>
+      </c>
+      <c r="I31" s="13">
+        <v>205249.42628901868</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>2030</v>
+      </c>
+      <c r="B32" s="14">
+        <v>42381.079622129138</v>
+      </c>
+      <c r="C32" s="14">
+        <v>88836.33275132686</v>
+      </c>
+      <c r="D32" s="14">
+        <v>24448.239063254721</v>
+      </c>
+      <c r="E32" s="14">
+        <v>45257.621803856178</v>
+      </c>
+      <c r="F32" s="14">
+        <v>4526.0095002483358</v>
+      </c>
+      <c r="G32" s="11">
+        <v>205449.28274081522</v>
+      </c>
+      <c r="H32" s="12">
+        <v>207422.30297684914</v>
+      </c>
+      <c r="I32" s="13">
+        <v>208176.88037945423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>2031</v>
+      </c>
+      <c r="B33" s="14">
+        <v>42451.921981536274</v>
+      </c>
+      <c r="C33" s="14">
+        <v>89692.729162634845</v>
+      </c>
+      <c r="D33" s="14">
+        <v>24685.931101279682</v>
+      </c>
+      <c r="E33" s="14">
+        <v>45808.136775580417</v>
+      </c>
+      <c r="F33" s="14">
+        <v>4499.2039168336787</v>
+      </c>
+      <c r="G33" s="11">
+        <v>207137.92293786487</v>
+      </c>
+      <c r="H33" s="12">
+        <v>209691.50022939389</v>
+      </c>
+      <c r="I33" s="13">
+        <v>211322.03210626499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>2032</v>
+      </c>
+      <c r="B34" s="14">
+        <v>42476.689974597073</v>
+      </c>
+      <c r="C34" s="14">
+        <v>90474.478936117142</v>
+      </c>
+      <c r="D34" s="14">
+        <v>24915.627336745703</v>
+      </c>
+      <c r="E34" s="14">
+        <v>46336.731252065991</v>
+      </c>
+      <c r="F34" s="14">
+        <v>4473.7734428112071</v>
+      </c>
+      <c r="G34" s="11">
+        <v>208677.30094233714</v>
+      </c>
+      <c r="H34" s="12">
+        <v>211836.02569184068</v>
+      </c>
+      <c r="I34" s="13">
+        <v>214606.56867117257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>2033</v>
+      </c>
+      <c r="B35" s="14">
+        <v>42473.983482421449</v>
+      </c>
+      <c r="C35" s="14">
+        <v>91188.613309664754</v>
+      </c>
+      <c r="D35" s="14">
+        <v>25137.727691860982</v>
+      </c>
+      <c r="E35" s="14">
+        <v>46840.371783522671</v>
+      </c>
+      <c r="F35" s="14">
+        <v>4449.9249762670997</v>
+      </c>
+      <c r="G35" s="11">
+        <v>210090.62124373694</v>
+      </c>
+      <c r="H35" s="12">
+        <v>213869.017707894</v>
+      </c>
+      <c r="I35" s="13">
+        <v>217964.44977893442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>2034</v>
+      </c>
+      <c r="B36" s="14">
+        <v>42403.397769354546</v>
+      </c>
+      <c r="C36" s="14">
+        <v>91808.460173819141</v>
+      </c>
+      <c r="D36" s="14">
+        <v>25348.969554057268</v>
+      </c>
+      <c r="E36" s="14">
+        <v>47314.78662898553</v>
+      </c>
+      <c r="F36" s="14">
+        <v>4428.1246590714536</v>
+      </c>
+      <c r="G36" s="11">
+        <v>211303.73878528789</v>
+      </c>
+      <c r="H36" s="12">
+        <v>215709.11267191981</v>
+      </c>
+      <c r="I36" s="13">
+        <v>221250.38959291601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>2035</v>
+      </c>
+      <c r="B37" s="14">
+        <v>42255.771909858646</v>
+      </c>
+      <c r="C37" s="14">
+        <v>92324.626009489977</v>
+      </c>
+      <c r="D37" s="14">
+        <v>25545.983353981355</v>
+      </c>
+      <c r="E37" s="14">
+        <v>47752.197344005093</v>
+      </c>
+      <c r="F37" s="14">
+        <v>4407.7396508232869</v>
+      </c>
+      <c r="G37" s="11">
+        <v>212286.31826815833</v>
+      </c>
+      <c r="H37" s="12">
+        <v>217334.64011412114</v>
+      </c>
+      <c r="I37" s="13">
+        <v>224373.55126345161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>2036</v>
+      </c>
+      <c r="B38" s="14">
+        <v>42024.46575565375</v>
+      </c>
+      <c r="C38" s="14">
+        <v>92728.109024706384</v>
+      </c>
+      <c r="D38" s="14">
+        <v>25724.285331246723</v>
+      </c>
+      <c r="E38" s="14">
+        <v>48145.881024347269</v>
+      </c>
+      <c r="F38" s="14">
+        <v>4389.6168415901475</v>
+      </c>
+      <c r="G38" s="11">
+        <v>213012.35797754431</v>
+      </c>
+      <c r="H38" s="12">
+        <v>218605.91749635505</v>
+      </c>
+      <c r="I38" s="13">
+        <v>227228.91789831981</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>2037</v>
+      </c>
+      <c r="B39" s="14">
+        <v>41703.413939411243</v>
+      </c>
+      <c r="C39" s="14">
+        <v>93013.01095650674</v>
+      </c>
+      <c r="D39" s="14">
+        <v>25880.694603610467</v>
+      </c>
+      <c r="E39" s="14">
+        <v>48486.142938811317</v>
+      </c>
+      <c r="F39" s="14">
+        <v>4372.8098145208978</v>
+      </c>
+      <c r="G39" s="11">
+        <v>213456.0722528607</v>
+      </c>
+      <c r="H39" s="12">
+        <v>219616.99564311755</v>
+      </c>
+      <c r="I39" s="13">
+        <v>229800.38681320284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>2038</v>
+      </c>
+      <c r="B40" s="14">
+        <v>41323.197173618893</v>
+      </c>
+      <c r="C40" s="14">
+        <v>93199.337444557561</v>
+      </c>
+      <c r="D40" s="14">
+        <v>26011.080126951529</v>
+      </c>
+      <c r="E40" s="14">
+        <v>48763.813239702009</v>
+      </c>
+      <c r="F40" s="14">
+        <v>4357.4171866576871</v>
+      </c>
+      <c r="G40" s="11">
+        <v>213654.84517148772</v>
+      </c>
+      <c r="H40" s="12">
+        <v>220402.38222133732</v>
+      </c>
+      <c r="I40" s="13">
+        <v>232105.76605030234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>2039</v>
+      </c>
+      <c r="B41" s="14">
+        <v>40972.108028461989</v>
+      </c>
+      <c r="C41" s="14">
+        <v>93343.63068107584</v>
+      </c>
+      <c r="D41" s="14">
+        <v>26110.22869512851</v>
+      </c>
+      <c r="E41" s="14">
+        <v>48968.359706767078</v>
+      </c>
+      <c r="F41" s="14">
+        <v>4342.7913233357549</v>
+      </c>
+      <c r="G41" s="11">
+        <v>213737.11843476913</v>
+      </c>
+      <c r="H41" s="12">
+        <v>221094.38734247049</v>
+      </c>
+      <c r="I41" s="13">
+        <v>234246.10087822075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>2040</v>
+      </c>
+      <c r="B42" s="14">
+        <v>40720.135230658248</v>
+      </c>
+      <c r="C42" s="14">
+        <v>93488.990893374663</v>
+      </c>
+      <c r="D42" s="14">
+        <v>26173.372095940354</v>
+      </c>
+      <c r="E42" s="14">
+        <v>49091.873701359495</v>
+      </c>
+      <c r="F42" s="14">
+        <v>4329.2209009390554</v>
+      </c>
+      <c r="G42" s="11">
+        <v>213803.59282227181</v>
+      </c>
+      <c r="H42" s="12">
+        <v>221686.1305879734</v>
+      </c>
+      <c r="I42" s="13">
+        <v>236324.03995703784</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>2041</v>
+      </c>
+      <c r="B43" s="14">
+        <v>40484.59907805056</v>
+      </c>
+      <c r="C43" s="14">
+        <v>93607.751706504918</v>
+      </c>
+      <c r="D43" s="14">
+        <v>26200.307963660711</v>
+      </c>
+      <c r="E43" s="14">
+        <v>49134.996059374986</v>
+      </c>
+      <c r="F43" s="14">
+        <v>4316.988017677576</v>
+      </c>
+      <c r="G43" s="11">
+        <v>213744.64282526873</v>
+      </c>
+      <c r="H43" s="12">
+        <v>222171.74603451422</v>
+      </c>
+      <c r="I43" s="13">
+        <v>238251.41713765895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>2042</v>
+      </c>
+      <c r="B44" s="14">
+        <v>40268.860820188689</v>
+      </c>
+      <c r="C44" s="14">
+        <v>93705.880407022691</v>
+      </c>
+      <c r="D44" s="14">
+        <v>26193.656344164981</v>
+      </c>
+      <c r="E44" s="14">
+        <v>49102.666777272869</v>
+      </c>
+      <c r="F44" s="14">
+        <v>4305.2493382234125</v>
+      </c>
+      <c r="G44" s="11">
+        <v>213576.31368687263</v>
+      </c>
+      <c r="H44" s="12">
+        <v>222660.45930663298</v>
+      </c>
+      <c r="I44" s="13">
+        <v>240059.63502850218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>2043</v>
+      </c>
+      <c r="B45" s="14">
+        <v>40049.189550684554</v>
+      </c>
+      <c r="C45" s="14">
+        <v>93774.135822335622</v>
+      </c>
+      <c r="D45" s="14">
+        <v>26164.200487715614</v>
+      </c>
+      <c r="E45" s="14">
+        <v>49016.599673016019</v>
+      </c>
+      <c r="F45" s="14">
+        <v>4292.8638903847486</v>
+      </c>
+      <c r="G45" s="11">
+        <v>213296.98942413655</v>
+      </c>
+      <c r="H45" s="12">
+        <v>223079.05796004547</v>
+      </c>
+      <c r="I45" s="13">
+        <v>241731.1779121655</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>2044</v>
+      </c>
+      <c r="B46" s="14">
+        <v>39827.408618932517</v>
+      </c>
+      <c r="C46" s="14">
+        <v>93815.811123806867</v>
+      </c>
+      <c r="D46" s="14">
+        <v>26123.7842954763</v>
+      </c>
+      <c r="E46" s="14">
+        <v>48903.721860363265</v>
+      </c>
+      <c r="F46" s="14">
+        <v>4279.8774288331797</v>
+      </c>
+      <c r="G46" s="11">
+        <v>212950.60332741213</v>
+      </c>
+      <c r="H46" s="12">
+        <v>223424.10662237453</v>
+      </c>
+      <c r="I46" s="13">
+        <v>243275.53374074289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>2045</v>
+      </c>
+      <c r="B47" s="14">
+        <v>39604.805179636751</v>
+      </c>
+      <c r="C47" s="14">
+        <v>93830.207377909654</v>
+      </c>
+      <c r="D47" s="14">
+        <v>26080.380212420408</v>
+      </c>
+      <c r="E47" s="14">
+        <v>48780.796907635828</v>
+      </c>
+      <c r="F47" s="14">
+        <v>4266.0109719014599</v>
+      </c>
+      <c r="G47" s="11">
+        <v>212562.20064950411</v>
+      </c>
+      <c r="H47" s="12">
+        <v>223682.85296099106</v>
+      </c>
+      <c r="I47" s="13">
+        <v>244701.13848952187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>2046</v>
+      </c>
+      <c r="B48" s="14">
+        <v>39383.701820428796</v>
+      </c>
+      <c r="C48" s="14">
+        <v>93818.665739919787</v>
+      </c>
+      <c r="D48" s="14">
+        <v>26035.549690687716</v>
+      </c>
+      <c r="E48" s="14">
+        <v>48654.551613967771</v>
+      </c>
+      <c r="F48" s="14">
+        <v>4251.5716496714331</v>
+      </c>
+      <c r="G48" s="11">
+        <v>212144.04051467552</v>
+      </c>
+      <c r="H48" s="12">
+        <v>224020.28925233247</v>
+      </c>
+      <c r="I48" s="13">
+        <v>246289.19764107608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>2047</v>
+      </c>
+      <c r="B49" s="14">
+        <v>39163.679183792752</v>
+      </c>
+      <c r="C49" s="14">
+        <v>93780.679363515243</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25985.861873684618</v>
+      </c>
+      <c r="E49" s="14">
+        <v>48527.528417132955</v>
+      </c>
+      <c r="F49" s="14">
+        <v>4234.8348729436811</v>
+      </c>
+      <c r="G49" s="11">
+        <v>211692.58371106928</v>
+      </c>
+      <c r="H49" s="12">
+        <v>224418.62397848695</v>
+      </c>
+      <c r="I49" s="13">
+        <v>248022.2840156462</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>2048</v>
+      </c>
+      <c r="B50" s="14">
+        <v>38939.737491232649</v>
+      </c>
+      <c r="C50" s="14">
+        <v>93713.082991286181</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25930.432343840363</v>
+      </c>
+      <c r="E50" s="14">
+        <v>48399.870084996386</v>
+      </c>
+      <c r="F50" s="14">
+        <v>4216.2538381220675</v>
+      </c>
+      <c r="G50" s="11">
+        <v>211199.37674947764</v>
+      </c>
+      <c r="H50" s="12">
+        <v>224873.80875863819</v>
+      </c>
+      <c r="I50" s="13">
+        <v>249919.76003125115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>2049</v>
+      </c>
+      <c r="B51" s="14">
+        <v>38722.301970671826</v>
+      </c>
+      <c r="C51" s="14">
+        <v>93622.513482658454</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25868.360683857485</v>
+      </c>
+      <c r="E51" s="14">
+        <v>48264.40632523645</v>
+      </c>
+      <c r="F51" s="14">
+        <v>4195.6777495957631</v>
+      </c>
+      <c r="G51" s="11">
+        <v>210673.26021201999</v>
+      </c>
+      <c r="H51" s="12">
+        <v>225360.77896779741</v>
+      </c>
+      <c r="I51" s="13">
+        <v>251919.0678807011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>2050</v>
+      </c>
+      <c r="B52" s="14">
+        <v>38511.984109584067</v>
+      </c>
+      <c r="C52" s="14">
+        <v>93511.886911265421</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25800.215924213433</v>
+      </c>
+      <c r="E52" s="14">
+        <v>48120.105510101886</v>
+      </c>
+      <c r="F52" s="14">
+        <v>4174.0838259396342</v>
+      </c>
+      <c r="G52" s="11">
+        <v>210118.27628110442</v>
+      </c>
+      <c r="H52" s="12">
+        <v>225870.13451786854</v>
+      </c>
+      <c r="I52" s="13">
+        <v>254007.73045880857</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>2051</v>
+      </c>
+      <c r="B53" s="14">
+        <v>38310.284814275146</v>
+      </c>
+      <c r="C53" s="14">
+        <v>93383.380550901129</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25726.830997484227</v>
+      </c>
+      <c r="E53" s="14">
+        <v>47967.525244023651</v>
+      </c>
+      <c r="F53" s="14">
+        <v>4152.3181548050325</v>
+      </c>
+      <c r="G53" s="11">
+        <v>209540.33976148916</v>
+      </c>
+      <c r="H53" s="12">
+        <v>226359.63919890509</v>
+      </c>
+      <c r="I53" s="13">
+        <v>256078.56806154965</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>2052</v>
+      </c>
+      <c r="B54" s="14">
+        <v>38118.192852307184</v>
+      </c>
+      <c r="C54" s="14">
+        <v>93239.561910246281</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25647.881046633232</v>
+      </c>
+      <c r="E54" s="14">
+        <v>47806.921089838244</v>
+      </c>
+      <c r="F54" s="14">
+        <v>4129.9398670506771</v>
+      </c>
+      <c r="G54" s="11">
+        <v>208942.49676607564</v>
+      </c>
+      <c r="H54" s="12">
+        <v>226852.9451223478</v>
+      </c>
+      <c r="I54" s="13">
+        <v>258160.3481937953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>2053</v>
+      </c>
+      <c r="B55" s="14">
+        <v>37935.354114467598</v>
+      </c>
+      <c r="C55" s="14">
+        <v>93081.730388904485</v>
+      </c>
+      <c r="D55" s="14">
+        <v>25564.835835854974</v>
+      </c>
+      <c r="E55" s="14">
+        <v>47639.671319654059</v>
+      </c>
+      <c r="F55" s="14">
+        <v>4108.0787797544708</v>
+      </c>
+      <c r="G55" s="11">
+        <v>208329.67043863557</v>
+      </c>
+      <c r="H55" s="12">
+        <v>227337.39786728547</v>
+      </c>
+      <c r="I55" s="13">
+        <v>260226.40880696964</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>2054</v>
+      </c>
+      <c r="B56" s="14">
+        <v>37761.313079794912</v>
+      </c>
+      <c r="C56" s="14">
+        <v>92911.536855110375</v>
+      </c>
+      <c r="D56" s="14">
+        <v>25478.839884371802</v>
+      </c>
+      <c r="E56" s="14">
+        <v>47467.53853146379</v>
+      </c>
+      <c r="F56" s="14">
+        <v>4086.4521112402726</v>
+      </c>
+      <c r="G56" s="11">
+        <v>207705.68046198116</v>
+      </c>
+      <c r="H56" s="12">
+        <v>227838.71575230418</v>
+      </c>
+      <c r="I56" s="13">
+        <v>262415.0686860024</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>2055</v>
+      </c>
+      <c r="B57" s="14">
+        <v>37595.603730036994</v>
+      </c>
+      <c r="C57" s="14">
+        <v>92730.372495792777</v>
+      </c>
+      <c r="D57" s="14">
+        <v>25391.23448032992</v>
+      </c>
+      <c r="E57" s="14">
+        <v>47290.893348569116</v>
+      </c>
+      <c r="F57" s="14">
+        <v>4064.1308034096432</v>
+      </c>
+      <c r="G57" s="11">
+        <v>207072.23485813846</v>
+      </c>
+      <c r="H57" s="12">
+        <v>228375.61998903539</v>
+      </c>
+      <c r="I57" s="13">
+        <v>264635.39790022955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>2056</v>
+      </c>
+      <c r="B58" s="14">
+        <v>37435.424093011854</v>
+      </c>
+      <c r="C58" s="14">
+        <v>92538.146803709707</v>
+      </c>
+      <c r="D58" s="14">
+        <v>25302.712677465079</v>
+      </c>
+      <c r="E58" s="14">
+        <v>47112.270398908629</v>
+      </c>
+      <c r="F58" s="14">
+        <v>4041.6905388108871</v>
+      </c>
+      <c r="G58" s="11">
+        <v>206430.24451190614</v>
+      </c>
+      <c r="H58" s="12">
+        <v>228968.64739293669</v>
+      </c>
+      <c r="I58" s="13">
+        <v>266848.3624607923</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>2057</v>
+      </c>
+      <c r="B59" s="14">
+        <v>37279.394404846222</v>
+      </c>
+      <c r="C59" s="14">
+        <v>92335.894233395491</v>
+      </c>
+      <c r="D59" s="14">
+        <v>25214.041222566455</v>
+      </c>
+      <c r="E59" s="14">
+        <v>46933.734452823337</v>
+      </c>
+      <c r="F59" s="14">
+        <v>4019.9143666228642</v>
+      </c>
+      <c r="G59" s="11">
+        <v>205782.97868025437</v>
+      </c>
+      <c r="H59" s="12">
+        <v>229504.11032498602</v>
+      </c>
+      <c r="I59" s="13">
+        <v>268864.16344894923</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>2058</v>
+      </c>
+      <c r="B60" s="14">
+        <v>37123.978053189327</v>
+      </c>
+      <c r="C60" s="14">
+        <v>92122.244991980275</v>
+      </c>
+      <c r="D60" s="14">
+        <v>25126.046170623784</v>
+      </c>
+      <c r="E60" s="14">
+        <v>46756.447264774346</v>
+      </c>
+      <c r="F60" s="14">
+        <v>3998.0391853215124</v>
+      </c>
+      <c r="G60" s="11">
+        <v>205126.75566588927</v>
+      </c>
+      <c r="H60" s="12">
+        <v>229971.52400086235</v>
+      </c>
+      <c r="I60" s="13">
+        <v>270661.25235104788</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>2059</v>
+      </c>
+      <c r="B61" s="14">
+        <v>36969.406666313174</v>
+      </c>
+      <c r="C61" s="14">
+        <v>91897.989509428007</v>
+      </c>
+      <c r="D61" s="14">
+        <v>25038.911733287689</v>
+      </c>
+      <c r="E61" s="14">
+        <v>46581.15865580563</v>
+      </c>
+      <c r="F61" s="14">
+        <v>3976.2468111699918</v>
+      </c>
+      <c r="G61" s="11">
+        <v>204463.71337600448</v>
+      </c>
+      <c r="H61" s="12">
+        <v>230385.06603879313</v>
+      </c>
+      <c r="I61" s="13">
+        <v>272272.10359292343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>2060</v>
+      </c>
+      <c r="B62" s="14">
+        <v>36814.58667389879</v>
+      </c>
+      <c r="C62" s="14">
+        <v>91662.42721691016</v>
+      </c>
+      <c r="D62" s="14">
+        <v>24952.508885104478</v>
+      </c>
+      <c r="E62" s="14">
+        <v>46407.783655826919</v>
+      </c>
+      <c r="F62" s="14">
+        <v>3954.5375486928879</v>
+      </c>
+      <c r="G62" s="11">
+        <v>203791.84398043324</v>
+      </c>
+      <c r="H62" s="12">
+        <v>230765.00606267841</v>
+      </c>
+      <c r="I62" s="13">
+        <v>273757.12899966363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>2061</v>
+      </c>
+      <c r="B63" s="14">
+        <v>36657.711303893921</v>
+      </c>
+      <c r="C63" s="14">
+        <v>91414.816179669855</v>
+      </c>
+      <c r="D63" s="14">
+        <v>24866.896467476054</v>
+      </c>
+      <c r="E63" s="14">
+        <v>46236.434201103737</v>
+      </c>
+      <c r="F63" s="14">
+        <v>3932.7184383532449</v>
+      </c>
+      <c r="G63" s="11">
+        <v>203108.57659049681</v>
+      </c>
+      <c r="H63" s="12">
+        <v>231128.24965231906</v>
+      </c>
+      <c r="I63" s="13">
+        <v>275151.63752402284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>2062</v>
+      </c>
+      <c r="B64" s="14">
+        <v>36496.466581545174</v>
+      </c>
+      <c r="C64" s="14">
+        <v>91154.070789060483</v>
+      </c>
+      <c r="D64" s="14">
+        <v>24781.051001351792</v>
+      </c>
+      <c r="E64" s="14">
+        <v>46066.122494323034</v>
+      </c>
+      <c r="F64" s="14">
+        <v>3910.7886070305817</v>
+      </c>
+      <c r="G64" s="11">
+        <v>202408.49947331104</v>
+      </c>
+      <c r="H64" s="12">
+        <v>231487.82036193705</v>
+      </c>
+      <c r="I64" s="13">
+        <v>276537.65251434315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>2063</v>
+      </c>
+      <c r="B65" s="14">
+        <v>36330.616564157674</v>
+      </c>
+      <c r="C65" s="14">
+        <v>90883.865926684171</v>
+      </c>
+      <c r="D65" s="14">
+        <v>24696.82901037456</v>
+      </c>
+      <c r="E65" s="14">
+        <v>45900.184340014406</v>
+      </c>
+      <c r="F65" s="14">
+        <v>3889.8949481279519</v>
+      </c>
+      <c r="G65" s="11">
+        <v>201701.39078935876</v>
+      </c>
+      <c r="H65" s="12">
+        <v>231828.79141560735</v>
+      </c>
+      <c r="I65" s="13">
+        <v>277889.56208295585</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>2064</v>
+      </c>
+      <c r="B66" s="14">
+        <v>36159.352593314812</v>
+      </c>
+      <c r="C66" s="14">
+        <v>90603.624757129626</v>
+      </c>
+      <c r="D66" s="14">
+        <v>24612.987652238229</v>
+      </c>
+      <c r="E66" s="14">
+        <v>45737.505115571519</v>
+      </c>
+      <c r="F66" s="14">
+        <v>3868.4908592128695</v>
+      </c>
+      <c r="G66" s="11">
+        <v>200981.96097746707</v>
+      </c>
+      <c r="H66" s="12">
+        <v>232132.16762760887</v>
+      </c>
+      <c r="I66" s="13">
+        <v>279173.83159872616</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>2065</v>
+      </c>
+      <c r="B67" s="14">
+        <v>35980.666300639794</v>
+      </c>
+      <c r="C67" s="14">
+        <v>90311.669209358894</v>
+      </c>
+      <c r="D67" s="14">
+        <v>24529.223987022116</v>
+      </c>
+      <c r="E67" s="14">
+        <v>45575.877319722225</v>
+      </c>
+      <c r="F67" s="14">
+        <v>3848.2286975982765</v>
+      </c>
+      <c r="G67" s="11">
+        <v>200245.66551434129</v>
+      </c>
+      <c r="H67" s="12">
+        <v>232386.41131713305</v>
+      </c>
+      <c r="I67" s="13">
+        <v>280362.2147631009</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>2066</v>
+      </c>
+      <c r="B68" s="14">
+        <v>35794.51756812301</v>
+      </c>
+      <c r="C68" s="14">
+        <v>90004.910900012095</v>
+      </c>
+      <c r="D68" s="14">
+        <v>24443.070414468984</v>
+      </c>
+      <c r="E68" s="14">
+        <v>45414.27244043097</v>
+      </c>
+      <c r="F68" s="14">
+        <v>3828.980075881871</v>
+      </c>
+      <c r="G68" s="11">
+        <v>199485.75139891694</v>
+      </c>
+      <c r="H68" s="12">
+        <v>232576.13505322579</v>
+      </c>
+      <c r="I68" s="13">
+        <v>281420.84523396991</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>2067</v>
+      </c>
+      <c r="B69" s="14">
+        <v>35601.292183086043</v>
+      </c>
+      <c r="C69" s="14">
+        <v>89681.722495613343</v>
+      </c>
+      <c r="D69" s="14">
+        <v>24354.799915491752</v>
+      </c>
+      <c r="E69" s="14">
+        <v>45250.669427010173</v>
+      </c>
+      <c r="F69" s="14">
+        <v>3809.9299733690027</v>
+      </c>
+      <c r="G69" s="11">
+        <v>198698.41399457029</v>
+      </c>
+      <c r="H69" s="12">
+        <v>232694.93724646245</v>
+      </c>
+      <c r="I69" s="13">
+        <v>282333.04553810949</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>2068</v>
+      </c>
+      <c r="B70" s="14">
+        <v>35402.214626108063</v>
+      </c>
+      <c r="C70" s="14">
+        <v>89342.772015977796</v>
+      </c>
+      <c r="D70" s="14">
+        <v>24262.968232113231</v>
+      </c>
+      <c r="E70" s="14">
+        <v>45079.367404528217</v>
+      </c>
+      <c r="F70" s="14">
+        <v>3791.5618167528578</v>
+      </c>
+      <c r="G70" s="11">
+        <v>197878.88409548017</v>
+      </c>
+      <c r="H70" s="12">
+        <v>232765.24156949608</v>
+      </c>
+      <c r="I70" s="13">
+        <v>283122.73355679837</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>2069</v>
+      </c>
+      <c r="B71" s="14">
+        <v>35197.496800226138</v>
+      </c>
+      <c r="C71" s="14">
+        <v>88988.736849086228</v>
+      </c>
+      <c r="D71" s="14">
+        <v>24167.552613719767</v>
+      </c>
+      <c r="E71" s="14">
+        <v>44900.061102955828</v>
+      </c>
+      <c r="F71" s="14">
+        <v>3774.1626915298893</v>
+      </c>
+      <c r="G71" s="11">
+        <v>197028.01005751785</v>
+      </c>
+      <c r="H71" s="12">
+        <v>232798.75834960406</v>
+      </c>
+      <c r="I71" s="13">
+        <v>283822.67560882436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>2070</v>
+      </c>
+      <c r="B72" s="14">
+        <v>34989.018313537475</v>
+      </c>
+      <c r="C72" s="14">
+        <v>88621.912167912233</v>
+      </c>
+      <c r="D72" s="14">
+        <v>24068.450796344281</v>
+      </c>
+      <c r="E72" s="14">
+        <v>44711.180431607921</v>
+      </c>
+      <c r="F72" s="14">
+        <v>3756.2032151958956</v>
+      </c>
+      <c r="G72" s="11">
+        <v>196146.76492459781</v>
+      </c>
+      <c r="H72" s="12">
+        <v>232817.01893575327</v>
+      </c>
+      <c r="I72" s="13">
+        <v>284463.23014817951</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="11">
+        <v>108021.49925459894</v>
+      </c>
+      <c r="C2" s="12">
+        <v>108021.49925459894</v>
+      </c>
+      <c r="D2" s="13">
+        <v>108021.49925459894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="11">
+        <v>112238.49458630393</v>
+      </c>
+      <c r="C3" s="12">
+        <v>112238.49458630393</v>
+      </c>
+      <c r="D3" s="13">
+        <v>112238.49458630393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="11">
+        <v>116468.28846523372</v>
+      </c>
+      <c r="C4" s="12">
+        <v>116468.28846523372</v>
+      </c>
+      <c r="D4" s="13">
+        <v>116468.28846523372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="11">
+        <v>120179.35858346941</v>
+      </c>
+      <c r="C5" s="12">
+        <v>120179.35858346941</v>
+      </c>
+      <c r="D5" s="13">
+        <v>120179.35858346941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="11">
+        <v>123878.31741830676</v>
+      </c>
+      <c r="C6" s="12">
+        <v>123878.31741830676</v>
+      </c>
+      <c r="D6" s="13">
+        <v>123878.31741830676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="11">
+        <v>127510.92737027635</v>
+      </c>
+      <c r="C7" s="12">
+        <v>127510.92737027635</v>
+      </c>
+      <c r="D7" s="13">
+        <v>127510.92737027635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="11">
+        <v>130915.65535729077</v>
+      </c>
+      <c r="C8" s="12">
+        <v>130915.65535729077</v>
+      </c>
+      <c r="D8" s="13">
+        <v>130915.65535729077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="11">
+        <v>134560.6966138242</v>
+      </c>
+      <c r="C9" s="12">
+        <v>134560.6966138242</v>
+      </c>
+      <c r="D9" s="13">
+        <v>134560.6966138242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="11">
+        <v>139795.83167345903</v>
+      </c>
+      <c r="C10" s="12">
+        <v>139795.83167345903</v>
+      </c>
+      <c r="D10" s="13">
+        <v>139795.83167345903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="11">
+        <v>143286.08185525399</v>
+      </c>
+      <c r="C11" s="12">
+        <v>143286.08185525399</v>
+      </c>
+      <c r="D11" s="13">
+        <v>143286.08185525399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="11">
+        <v>147256.56323954766</v>
+      </c>
+      <c r="C12" s="12">
+        <v>147256.56323954766</v>
+      </c>
+      <c r="D12" s="13">
+        <v>147256.56323954766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="11">
+        <v>151329.65887513445</v>
+      </c>
+      <c r="C13" s="12">
+        <v>151329.65887513445</v>
+      </c>
+      <c r="D13" s="13">
+        <v>151329.65887513445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="11">
+        <v>155379.7155313383</v>
+      </c>
+      <c r="C14" s="12">
+        <v>155379.7155313383</v>
+      </c>
+      <c r="D14" s="13">
+        <v>155379.7155313383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="11">
+        <v>159273.71968614857</v>
+      </c>
+      <c r="C15" s="12">
+        <v>159273.71968614857</v>
+      </c>
+      <c r="D15" s="13">
+        <v>159273.71968614857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="11">
+        <v>163239.28025552692</v>
+      </c>
+      <c r="C16" s="12">
+        <v>163239.28025552692</v>
+      </c>
+      <c r="D16" s="13">
+        <v>163239.28025552692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="11">
+        <v>167336.75527042447</v>
+      </c>
+      <c r="C17" s="12">
+        <v>167336.75527042447</v>
+      </c>
+      <c r="D17" s="13">
+        <v>167336.75527042447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="11">
+        <v>170856.99960840735</v>
+      </c>
+      <c r="C18" s="12">
+        <v>170856.99960840735</v>
+      </c>
+      <c r="D18" s="13">
+        <v>170856.99960840735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="11">
+        <v>174164.54131674339</v>
+      </c>
+      <c r="C19" s="12">
+        <v>174164.54131674339</v>
+      </c>
+      <c r="D19" s="13">
+        <v>174164.54131674339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="11">
+        <v>177586.36630747953</v>
+      </c>
+      <c r="C20" s="12">
+        <v>177586.36630747953</v>
+      </c>
+      <c r="D20" s="13">
+        <v>177586.36630747953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="11">
+        <v>180235.00184388133</v>
+      </c>
+      <c r="C21" s="12">
+        <v>180235.00184388133</v>
+      </c>
+      <c r="D21" s="13">
+        <v>180235.00184388133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="11">
+        <v>182811.58105043511</v>
+      </c>
+      <c r="C22" s="12">
+        <v>182811.58105043511</v>
+      </c>
+      <c r="D22" s="13">
+        <v>182811.58105043511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="11">
+        <v>185037.44493934041</v>
+      </c>
+      <c r="C23" s="12">
+        <v>185037.44493934041</v>
+      </c>
+      <c r="D23" s="13">
+        <v>185037.44493934041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="11">
+        <v>187898.43979846581</v>
+      </c>
+      <c r="C24" s="12">
+        <v>187904.1978962367</v>
+      </c>
+      <c r="D24" s="13">
+        <v>187911.92615781727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="11">
+        <v>190313.51022084145</v>
+      </c>
+      <c r="C25" s="12">
+        <v>190217.40034304876</v>
+      </c>
+      <c r="D25" s="13">
+        <v>190089.98782201664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="11">
+        <v>192660.74137095391</v>
+      </c>
+      <c r="C26" s="12">
+        <v>192478.91400968123</v>
+      </c>
+      <c r="D26" s="13">
+        <v>192238.18425336663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B27" s="11">
+        <v>195008.49888829808</v>
+      </c>
+      <c r="C27" s="12">
+        <v>194903.2931161673</v>
+      </c>
+      <c r="D27" s="13">
+        <v>194629.72631043958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B28" s="11">
+        <v>197288.85534294936</v>
+      </c>
+      <c r="C28" s="12">
+        <v>197412.97217677406</v>
+      </c>
+      <c r="D28" s="13">
+        <v>197180.18139612547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>2027</v>
+      </c>
+      <c r="B29" s="11">
+        <v>199502.07054916184</v>
+      </c>
+      <c r="C29" s="12">
+        <v>199979.52388398637</v>
+      </c>
+      <c r="D29" s="13">
+        <v>199848.67020374176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>2028</v>
+      </c>
+      <c r="B30" s="11">
+        <v>201611.65757567322</v>
+      </c>
+      <c r="C30" s="12">
+        <v>202532.09402158452</v>
+      </c>
+      <c r="D30" s="13">
+        <v>202550.60761900491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>2029</v>
+      </c>
+      <c r="B31" s="11">
+        <v>203617.41013362736</v>
+      </c>
+      <c r="C31" s="12">
+        <v>205041.64550119347</v>
+      </c>
+      <c r="D31" s="13">
+        <v>205249.42628901868</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>2030</v>
+      </c>
+      <c r="B32" s="11">
+        <v>205449.28274081522</v>
+      </c>
+      <c r="C32" s="12">
+        <v>207422.30297684914</v>
+      </c>
+      <c r="D32" s="13">
+        <v>208176.88037945423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>2031</v>
+      </c>
+      <c r="B33" s="11">
+        <v>207137.92293786487</v>
+      </c>
+      <c r="C33" s="12">
+        <v>209691.50022939389</v>
+      </c>
+      <c r="D33" s="13">
+        <v>211322.03210626499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>2032</v>
+      </c>
+      <c r="B34" s="11">
+        <v>208677.30094233714</v>
+      </c>
+      <c r="C34" s="12">
+        <v>211836.02569184068</v>
+      </c>
+      <c r="D34" s="13">
+        <v>214606.56867117257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>2033</v>
+      </c>
+      <c r="B35" s="11">
+        <v>210090.62124373694</v>
+      </c>
+      <c r="C35" s="12">
+        <v>213869.017707894</v>
+      </c>
+      <c r="D35" s="13">
+        <v>217964.44977893442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>2034</v>
+      </c>
+      <c r="B36" s="11">
+        <v>211303.73878528789</v>
+      </c>
+      <c r="C36" s="12">
+        <v>215709.11267191981</v>
+      </c>
+      <c r="D36" s="13">
+        <v>221250.38959291601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>2035</v>
+      </c>
+      <c r="B37" s="11">
+        <v>212286.31826815833</v>
+      </c>
+      <c r="C37" s="12">
+        <v>217334.64011412114</v>
+      </c>
+      <c r="D37" s="13">
+        <v>224373.55126345161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>2036</v>
+      </c>
+      <c r="B38" s="11">
+        <v>213012.35797754431</v>
+      </c>
+      <c r="C38" s="12">
+        <v>218605.91749635505</v>
+      </c>
+      <c r="D38" s="13">
+        <v>227228.91789831981</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>2037</v>
+      </c>
+      <c r="B39" s="11">
+        <v>213456.0722528607</v>
+      </c>
+      <c r="C39" s="12">
+        <v>219616.99564311755</v>
+      </c>
+      <c r="D39" s="13">
+        <v>229800.38681320284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>2038</v>
+      </c>
+      <c r="B40" s="11">
+        <v>213654.84517148772</v>
+      </c>
+      <c r="C40" s="12">
+        <v>220402.38222133732</v>
+      </c>
+      <c r="D40" s="13">
+        <v>232105.76605030234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>2039</v>
+      </c>
+      <c r="B41" s="11">
+        <v>213737.11843476913</v>
+      </c>
+      <c r="C41" s="12">
+        <v>221094.38734247049</v>
+      </c>
+      <c r="D41" s="13">
+        <v>234246.10087822075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>2040</v>
+      </c>
+      <c r="B42" s="11">
+        <v>213803.59282227181</v>
+      </c>
+      <c r="C42" s="12">
+        <v>221686.1305879734</v>
+      </c>
+      <c r="D42" s="13">
+        <v>236324.03995703784</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>2041</v>
+      </c>
+      <c r="B43" s="11">
+        <v>213744.64282526873</v>
+      </c>
+      <c r="C43" s="12">
+        <v>222171.74603451422</v>
+      </c>
+      <c r="D43" s="13">
+        <v>238251.41713765895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>2042</v>
+      </c>
+      <c r="B44" s="11">
+        <v>213576.31368687263</v>
+      </c>
+      <c r="C44" s="12">
+        <v>222660.45930663298</v>
+      </c>
+      <c r="D44" s="13">
+        <v>240059.63502850218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>2043</v>
+      </c>
+      <c r="B45" s="11">
+        <v>213296.98942413655</v>
+      </c>
+      <c r="C45" s="12">
+        <v>223079.05796004547</v>
+      </c>
+      <c r="D45" s="13">
+        <v>241731.1779121655</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>2044</v>
+      </c>
+      <c r="B46" s="11">
+        <v>212950.60332741213</v>
+      </c>
+      <c r="C46" s="12">
+        <v>223424.10662237453</v>
+      </c>
+      <c r="D46" s="13">
+        <v>243275.53374074289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>2045</v>
+      </c>
+      <c r="B47" s="11">
+        <v>212562.20064950411</v>
+      </c>
+      <c r="C47" s="12">
+        <v>223682.85296099106</v>
+      </c>
+      <c r="D47" s="13">
+        <v>244701.13848952187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>2046</v>
+      </c>
+      <c r="B48" s="11">
+        <v>212144.04051467552</v>
+      </c>
+      <c r="C48" s="12">
+        <v>224020.28925233247</v>
+      </c>
+      <c r="D48" s="13">
+        <v>246289.19764107608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>2047</v>
+      </c>
+      <c r="B49" s="11">
+        <v>211692.58371106928</v>
+      </c>
+      <c r="C49" s="12">
+        <v>224418.62397848695</v>
+      </c>
+      <c r="D49" s="13">
+        <v>248022.2840156462</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>2048</v>
+      </c>
+      <c r="B50" s="11">
+        <v>211199.37674947764</v>
+      </c>
+      <c r="C50" s="12">
+        <v>224873.80875863819</v>
+      </c>
+      <c r="D50" s="13">
+        <v>249919.76003125115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>2049</v>
+      </c>
+      <c r="B51" s="11">
+        <v>210673.26021201999</v>
+      </c>
+      <c r="C51" s="12">
+        <v>225360.77896779741</v>
+      </c>
+      <c r="D51" s="13">
+        <v>251919.0678807011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>2050</v>
+      </c>
+      <c r="B52" s="11">
+        <v>210118.27628110442</v>
+      </c>
+      <c r="C52" s="12">
+        <v>225870.13451786854</v>
+      </c>
+      <c r="D52" s="13">
+        <v>254007.73045880857</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>2051</v>
+      </c>
+      <c r="B53" s="11">
+        <v>209540.33976148916</v>
+      </c>
+      <c r="C53" s="12">
+        <v>226359.63919890509</v>
+      </c>
+      <c r="D53" s="13">
+        <v>256078.56806154965</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>2052</v>
+      </c>
+      <c r="B54" s="11">
+        <v>208942.49676607564</v>
+      </c>
+      <c r="C54" s="12">
+        <v>226852.9451223478</v>
+      </c>
+      <c r="D54" s="13">
+        <v>258160.3481937953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>2053</v>
+      </c>
+      <c r="B55" s="11">
+        <v>208329.67043863557</v>
+      </c>
+      <c r="C55" s="12">
+        <v>227337.39786728547</v>
+      </c>
+      <c r="D55" s="13">
+        <v>260226.40880696964</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>2054</v>
+      </c>
+      <c r="B56" s="11">
+        <v>207705.68046198116</v>
+      </c>
+      <c r="C56" s="12">
+        <v>227838.71575230418</v>
+      </c>
+      <c r="D56" s="13">
+        <v>262415.0686860024</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>2055</v>
+      </c>
+      <c r="B57" s="11">
+        <v>207072.23485813846</v>
+      </c>
+      <c r="C57" s="12">
+        <v>228375.61998903539</v>
+      </c>
+      <c r="D57" s="13">
+        <v>264635.39790022955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>2056</v>
+      </c>
+      <c r="B58" s="11">
+        <v>206430.24451190614</v>
+      </c>
+      <c r="C58" s="12">
+        <v>228968.64739293669</v>
+      </c>
+      <c r="D58" s="13">
+        <v>266848.3624607923</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>2057</v>
+      </c>
+      <c r="B59" s="11">
+        <v>205782.97868025437</v>
+      </c>
+      <c r="C59" s="12">
+        <v>229504.11032498602</v>
+      </c>
+      <c r="D59" s="13">
+        <v>268864.16344894923</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>2058</v>
+      </c>
+      <c r="B60" s="11">
+        <v>205126.75566588927</v>
+      </c>
+      <c r="C60" s="12">
+        <v>229971.52400086235</v>
+      </c>
+      <c r="D60" s="13">
+        <v>270661.25235104788</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>2059</v>
+      </c>
+      <c r="B61" s="11">
+        <v>204463.71337600448</v>
+      </c>
+      <c r="C61" s="12">
+        <v>230385.06603879313</v>
+      </c>
+      <c r="D61" s="13">
+        <v>272272.10359292343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>2060</v>
+      </c>
+      <c r="B62" s="11">
+        <v>203791.84398043324</v>
+      </c>
+      <c r="C62" s="12">
+        <v>230765.00606267841</v>
+      </c>
+      <c r="D62" s="13">
+        <v>273757.12899966363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>2061</v>
+      </c>
+      <c r="B63" s="11">
+        <v>203108.57659049681</v>
+      </c>
+      <c r="C63" s="12">
+        <v>231128.24965231906</v>
+      </c>
+      <c r="D63" s="13">
+        <v>275151.63752402284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>2062</v>
+      </c>
+      <c r="B64" s="11">
+        <v>202408.49947331104</v>
+      </c>
+      <c r="C64" s="12">
+        <v>231487.82036193705</v>
+      </c>
+      <c r="D64" s="13">
+        <v>276537.65251434315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>2063</v>
+      </c>
+      <c r="B65" s="11">
+        <v>201701.39078935876</v>
+      </c>
+      <c r="C65" s="12">
+        <v>231828.79141560735</v>
+      </c>
+      <c r="D65" s="13">
+        <v>277889.56208295585</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>2064</v>
+      </c>
+      <c r="B66" s="11">
+        <v>200981.96097746707</v>
+      </c>
+      <c r="C66" s="12">
+        <v>232132.16762760887</v>
+      </c>
+      <c r="D66" s="13">
+        <v>279173.83159872616</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>2065</v>
+      </c>
+      <c r="B67" s="11">
+        <v>200245.66551434129</v>
+      </c>
+      <c r="C67" s="12">
+        <v>232386.41131713305</v>
+      </c>
+      <c r="D67" s="13">
+        <v>280362.2147631009</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>2066</v>
+      </c>
+      <c r="B68" s="11">
+        <v>199485.75139891694</v>
+      </c>
+      <c r="C68" s="12">
+        <v>232576.13505322579</v>
+      </c>
+      <c r="D68" s="13">
+        <v>281420.84523396991</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>2067</v>
+      </c>
+      <c r="B69" s="11">
+        <v>198698.41399457029</v>
+      </c>
+      <c r="C69" s="12">
+        <v>232694.93724646245</v>
+      </c>
+      <c r="D69" s="13">
+        <v>282333.04553810949</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>2068</v>
+      </c>
+      <c r="B70" s="11">
+        <v>197878.88409548017</v>
+      </c>
+      <c r="C70" s="12">
+        <v>232765.24156949608</v>
+      </c>
+      <c r="D70" s="13">
+        <v>283122.73355679837</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>2069</v>
+      </c>
+      <c r="B71" s="11">
+        <v>197028.01005751785</v>
+      </c>
+      <c r="C71" s="12">
+        <v>232798.75834960406</v>
+      </c>
+      <c r="D71" s="13">
+        <v>283822.67560882436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>2070</v>
+      </c>
+      <c r="B72" s="11">
+        <v>196146.76492459781</v>
+      </c>
+      <c r="C72" s="12">
+        <v>232817.01893575327</v>
+      </c>
+      <c r="D72" s="13">
+        <v>284463.23014817951</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>

--- a/data-raw/Kuviot_muut_2023.xlsx
+++ b/data-raw/Kuviot_muut_2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14976" windowHeight="10572" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14976" windowHeight="10572" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kuvio_4_2" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,7 @@
     <t>time</t>
   </si>
   <si>
-    <t>Velkasuhde (oik.)</t>
-  </si>
-  <si>
     <t>Työn tuottavuus (vas.)</t>
-  </si>
-  <si>
-    <t>Reaaliset yksikkötyökustannukset (oik.)</t>
   </si>
   <si>
     <t>Työtunnit (vas.)</t>
@@ -182,6 +176,12 @@
   </si>
   <si>
     <t>Optimistinen</t>
+  </si>
+  <si>
+    <t>Velkasuhde (oik. käännetty asteikko)</t>
+  </si>
+  <si>
+    <t>Reaaliset yksikkötyökustannukset (oik. käännetty asteikko)</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
         <v>2023</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3">
         <v>11.222462281165001</v>
@@ -1164,7 +1164,7 @@
         <v>2023</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>9.4885470219008958</v>
@@ -1175,7 +1175,7 @@
         <v>2023</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
         <v>9.0291176454650497</v>
@@ -1186,7 +1186,7 @@
         <v>2023</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
         <v>9.0040345814317</v>
@@ -1197,7 +1197,7 @@
         <v>2023</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>8.018224275860149</v>
@@ -1208,7 +1208,7 @@
         <v>2023</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
         <v>7.4765198025380055</v>
@@ -1219,7 +1219,7 @@
         <v>2023</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3">
         <v>7.21368321893077</v>
@@ -1230,7 +1230,7 @@
         <v>2023</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>6.8826899555939818</v>
@@ -1241,7 +1241,7 @@
         <v>2023</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
         <v>6.8458592417319206</v>
@@ -1252,7 +1252,7 @@
         <v>2023</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3">
         <v>5.9907651295470732</v>
@@ -1263,7 +1263,7 @@
         <v>2023</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3">
         <v>5.9748349920233821</v>
@@ -1274,7 +1274,7 @@
         <v>2023</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3">
         <v>5.8692800275133559</v>
@@ -1285,7 +1285,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3">
         <v>5.7272870038119805</v>
@@ -1296,7 +1296,7 @@
         <v>2023</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3">
         <v>5.5137414554448467</v>
@@ -1307,7 +1307,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3">
         <v>5.3287460265736453</v>
@@ -1318,7 +1318,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>5.3035449375607957</v>
@@ -1329,7 +1329,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3">
         <v>5.1603302496524819</v>
@@ -1340,7 +1340,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3">
         <v>4.9398794882360564</v>
@@ -1351,7 +1351,7 @@
         <v>2023</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3">
         <v>3.9242570772224425</v>
@@ -1380,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1391,7 +1391,7 @@
         <v>2023</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>6.4744217401166111</v>
@@ -1402,7 +1402,7 @@
         <v>2023</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>6.3702775294816787</v>
@@ -1413,7 +1413,7 @@
         <v>2023</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>6.3058035522679372</v>
@@ -1424,7 +1424,7 @@
         <v>2023</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>5.8121856697684198</v>
@@ -1435,7 +1435,7 @@
         <v>2023</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>5.5884828780265874</v>
@@ -1446,7 +1446,7 @@
         <v>2023</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>5.5050824359397694</v>
@@ -1457,7 +1457,7 @@
         <v>2023</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
         <v>5.0488357226618525</v>
@@ -1468,7 +1468,7 @@
         <v>2023</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>4.7527900019900882</v>
@@ -1479,7 +1479,7 @@
         <v>2023</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3">
         <v>4.3537491835911046</v>
@@ -1490,7 +1490,7 @@
         <v>2023</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
         <v>4.2371179451427512</v>
@@ -1501,7 +1501,7 @@
         <v>2023</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3">
         <v>3.9778237616390428</v>
@@ -1512,7 +1512,7 @@
         <v>2023</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
         <v>3.8008619012514515</v>
@@ -1523,7 +1523,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3">
         <v>3.4586513269094308</v>
@@ -1534,7 +1534,7 @@
         <v>2023</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3">
         <v>3.412339302685905</v>
@@ -1545,7 +1545,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3">
         <v>3.2137720338569804</v>
@@ -1556,7 +1556,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3">
         <v>2.8501499217858441</v>
@@ -1567,7 +1567,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
         <v>2.2665440592022916</v>
@@ -1578,7 +1578,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3">
         <v>2.1305191582553613</v>
@@ -1589,7 +1589,7 @@
         <v>2023</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>1.6460993358891871</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1948,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2909,7 +2909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -2920,28 +2920,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="G1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -5026,13 +5026,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -6052,19 +6052,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6072,7 +6072,7 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>0.46</v>
@@ -6092,7 +6092,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>-2.12</v>
@@ -6112,7 +6112,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>1.94</v>
